--- a/webscrape_data/h2_ca.xlsx
+++ b/webscrape_data/h2_ca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1654"/>
+  <dimension ref="A1:J1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71208,10 +71208,8 @@
           <t>trailer swap</t>
         </is>
       </c>
-      <c r="C1598" t="inlineStr">
-        <is>
-          <t>15004</t>
-        </is>
+      <c r="C1598" t="n">
+        <v>15004</v>
       </c>
       <c r="D1598" t="inlineStr">
         <is>
@@ -71223,10 +71221,8 @@
           <t>$18.99/kg</t>
         </is>
       </c>
-      <c r="F1598" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1598" t="n">
+        <v>1</v>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
@@ -71256,10 +71252,8 @@
           <t>trailer swap</t>
         </is>
       </c>
-      <c r="C1599" t="inlineStr">
-        <is>
-          <t>14999</t>
-        </is>
+      <c r="C1599" t="n">
+        <v>14999</v>
       </c>
       <c r="D1599" t="inlineStr">
         <is>
@@ -71271,10 +71265,8 @@
           <t>$18.99/kg</t>
         </is>
       </c>
-      <c r="F1599" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1599" t="n">
+        <v>1</v>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
@@ -71304,10 +71296,8 @@
           <t>trailer swap</t>
         </is>
       </c>
-      <c r="C1600" t="inlineStr">
-        <is>
-          <t>15003</t>
-        </is>
+      <c r="C1600" t="n">
+        <v>15003</v>
       </c>
       <c r="D1600" t="inlineStr">
         <is>
@@ -71319,10 +71309,8 @@
           <t>$18.99/kg</t>
         </is>
       </c>
-      <c r="F1600" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1600" t="n">
+        <v>1</v>
       </c>
       <c r="G1600" t="inlineStr">
         <is>
@@ -71352,10 +71340,8 @@
           <t>trailer swap</t>
         </is>
       </c>
-      <c r="C1601" t="inlineStr">
-        <is>
-          <t>14996</t>
-        </is>
+      <c r="C1601" t="n">
+        <v>14996</v>
       </c>
       <c r="D1601" t="inlineStr">
         <is>
@@ -71367,10 +71353,8 @@
           <t>$18.99/kg</t>
         </is>
       </c>
-      <c r="F1601" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1601" t="n">
+        <v>1</v>
       </c>
       <c r="G1601" t="inlineStr">
         <is>
@@ -71400,10 +71384,8 @@
           <t>trailer swap</t>
         </is>
       </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>15007</t>
-        </is>
+      <c r="C1602" t="n">
+        <v>15007</v>
       </c>
       <c r="D1602" t="inlineStr">
         <is>
@@ -71415,10 +71397,8 @@
           <t>$18.95/kg</t>
         </is>
       </c>
-      <c r="F1602" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1602" t="n">
+        <v>1</v>
       </c>
       <c r="G1602" t="inlineStr">
         <is>
@@ -71448,10 +71428,8 @@
           <t>trailer swap</t>
         </is>
       </c>
-      <c r="C1603" t="inlineStr">
-        <is>
-          <t>15014</t>
-        </is>
+      <c r="C1603" t="n">
+        <v>15014</v>
       </c>
       <c r="D1603" t="inlineStr">
         <is>
@@ -71463,10 +71441,8 @@
           <t>$18.99/kg</t>
         </is>
       </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1603" t="n">
+        <v>1</v>
       </c>
       <c r="G1603" t="inlineStr">
         <is>
@@ -71500,10 +71476,8 @@
           <t>electrolyzer</t>
         </is>
       </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>14972</t>
-        </is>
+      <c r="C1604" t="n">
+        <v>14972</v>
       </c>
       <c r="D1604" t="inlineStr">
         <is>
@@ -71515,10 +71489,8 @@
           <t>$20.12/kg</t>
         </is>
       </c>
-      <c r="F1604" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1604" t="n">
+        <v>1</v>
       </c>
       <c r="G1604" t="inlineStr">
         <is>
@@ -71548,10 +71520,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1605" t="inlineStr">
-        <is>
-          <t>16790</t>
-        </is>
+      <c r="C1605" t="n">
+        <v>16790</v>
       </c>
       <c r="D1605" t="inlineStr">
         <is>
@@ -71563,10 +71533,8 @@
           <t>$24.99/kg</t>
         </is>
       </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1605" t="n">
+        <v>2</v>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
@@ -71596,10 +71564,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1606" t="inlineStr">
-        <is>
-          <t>15005</t>
-        </is>
+      <c r="C1606" t="n">
+        <v>15005</v>
       </c>
       <c r="D1606" t="inlineStr">
         <is>
@@ -71611,10 +71577,8 @@
           <t>$24.99/kg</t>
         </is>
       </c>
-      <c r="F1606" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1606" t="n">
+        <v>1</v>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
@@ -71644,10 +71608,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1607" t="inlineStr">
-        <is>
-          <t>15030</t>
-        </is>
+      <c r="C1607" t="n">
+        <v>15030</v>
       </c>
       <c r="D1607" t="inlineStr">
         <is>
@@ -71659,10 +71621,8 @@
           <t>$24.99/kg</t>
         </is>
       </c>
-      <c r="F1607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1607" t="n">
+        <v>2</v>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
@@ -71692,10 +71652,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1608" t="inlineStr">
-        <is>
-          <t>15006</t>
-        </is>
+      <c r="C1608" t="n">
+        <v>15006</v>
       </c>
       <c r="D1608" t="inlineStr">
         <is>
@@ -71707,10 +71665,8 @@
           <t>$24.99/kg</t>
         </is>
       </c>
-      <c r="F1608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1608" t="n">
+        <v>2</v>
       </c>
       <c r="G1608" t="inlineStr">
         <is>
@@ -71740,10 +71696,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1609" t="inlineStr">
-        <is>
-          <t>17149</t>
-        </is>
+      <c r="C1609" t="n">
+        <v>17149</v>
       </c>
       <c r="D1609" t="inlineStr">
         <is>
@@ -71755,10 +71709,8 @@
           <t>$24.99/kg</t>
         </is>
       </c>
-      <c r="F1609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1609" t="n">
+        <v>2</v>
       </c>
       <c r="G1609" t="inlineStr">
         <is>
@@ -71788,10 +71740,8 @@
           <t>trailer swap</t>
         </is>
       </c>
-      <c r="C1610" t="inlineStr">
-        <is>
-          <t>15046</t>
-        </is>
+      <c r="C1610" t="n">
+        <v>15046</v>
       </c>
       <c r="D1610" t="inlineStr">
         <is>
@@ -71803,10 +71753,8 @@
           <t>$19.99/kg</t>
         </is>
       </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1610" t="n">
+        <v>1</v>
       </c>
       <c r="G1610" t="inlineStr">
         <is>
@@ -71836,10 +71784,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1611" t="inlineStr">
-        <is>
-          <t>15688</t>
-        </is>
+      <c r="C1611" t="n">
+        <v>15688</v>
       </c>
       <c r="D1611" t="inlineStr">
         <is>
@@ -71851,10 +71797,8 @@
           <t>$19.19/kg</t>
         </is>
       </c>
-      <c r="F1611" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1611" t="n">
+        <v>1</v>
       </c>
       <c r="G1611" t="inlineStr">
         <is>
@@ -71884,10 +71828,8 @@
           <t>pipeline</t>
         </is>
       </c>
-      <c r="C1612" t="inlineStr">
-        <is>
-          <t>15595</t>
-        </is>
+      <c r="C1612" t="n">
+        <v>15595</v>
       </c>
       <c r="D1612" t="inlineStr">
         <is>
@@ -71899,10 +71841,8 @@
           <t>$15.99/kg</t>
         </is>
       </c>
-      <c r="F1612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1612" t="n">
+        <v>2</v>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
@@ -71932,10 +71872,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1613" t="inlineStr">
-        <is>
-          <t>15472</t>
-        </is>
+      <c r="C1613" t="n">
+        <v>15472</v>
       </c>
       <c r="D1613" t="inlineStr">
         <is>
@@ -71947,10 +71885,8 @@
           <t>$16.45/kg</t>
         </is>
       </c>
-      <c r="F1613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1613" t="n">
+        <v>2</v>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
@@ -71984,10 +71920,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1614" t="inlineStr">
-        <is>
-          <t>15488</t>
-        </is>
+      <c r="C1614" t="n">
+        <v>15488</v>
       </c>
       <c r="D1614" t="inlineStr">
         <is>
@@ -71999,10 +71933,8 @@
           <t>$16.45/kg</t>
         </is>
       </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1614" t="n">
+        <v>2</v>
       </c>
       <c r="G1614" t="inlineStr">
         <is>
@@ -72032,10 +71964,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1615" t="inlineStr">
-        <is>
-          <t>15486</t>
-        </is>
+      <c r="C1615" t="n">
+        <v>15486</v>
       </c>
       <c r="D1615" t="inlineStr">
         <is>
@@ -72047,10 +71977,8 @@
           <t>$16.35/kg</t>
         </is>
       </c>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1615" t="n">
+        <v>2</v>
       </c>
       <c r="G1615" t="inlineStr">
         <is>
@@ -72080,10 +72008,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1616" t="inlineStr">
-        <is>
-          <t>15477</t>
-        </is>
+      <c r="C1616" t="n">
+        <v>15477</v>
       </c>
       <c r="D1616" t="inlineStr">
         <is>
@@ -72095,10 +72021,8 @@
           <t>$16.45/kg</t>
         </is>
       </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1616" t="n">
+        <v>2</v>
       </c>
       <c r="G1616" t="inlineStr">
         <is>
@@ -72128,10 +72052,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1617" t="inlineStr">
-        <is>
-          <t>15476</t>
-        </is>
+      <c r="C1617" t="n">
+        <v>15476</v>
       </c>
       <c r="D1617" t="inlineStr">
         <is>
@@ -72143,10 +72065,8 @@
           <t>$16.45/kg</t>
         </is>
       </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1617" t="n">
+        <v>2</v>
       </c>
       <c r="G1617" t="inlineStr">
         <is>
@@ -72176,10 +72096,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1618" t="inlineStr">
-        <is>
-          <t>15848</t>
-        </is>
+      <c r="C1618" t="n">
+        <v>15848</v>
       </c>
       <c r="D1618" t="inlineStr">
         <is>
@@ -72191,10 +72109,8 @@
           <t>$16.45/kg</t>
         </is>
       </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1618" t="n">
+        <v>2</v>
       </c>
       <c r="G1618" t="inlineStr">
         <is>
@@ -72228,10 +72144,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1619" t="inlineStr">
-        <is>
-          <t>16759</t>
-        </is>
+      <c r="C1619" t="n">
+        <v>16759</v>
       </c>
       <c r="D1619" t="inlineStr">
         <is>
@@ -72243,10 +72157,8 @@
           <t>$19.45/kg</t>
         </is>
       </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1619" t="n">
+        <v>4</v>
       </c>
       <c r="G1619" t="inlineStr">
         <is>
@@ -72276,10 +72188,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1620" t="inlineStr">
-        <is>
-          <t>16757</t>
-        </is>
+      <c r="C1620" t="n">
+        <v>16757</v>
       </c>
       <c r="D1620" t="inlineStr">
         <is>
@@ -72291,10 +72201,8 @@
           <t>$19.76/kg</t>
         </is>
       </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1620" t="n">
+        <v>4</v>
       </c>
       <c r="G1620" t="inlineStr">
         <is>
@@ -72324,10 +72232,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1621" t="inlineStr">
-        <is>
-          <t>16763</t>
-        </is>
+      <c r="C1621" t="n">
+        <v>16763</v>
       </c>
       <c r="D1621" t="inlineStr">
         <is>
@@ -72339,10 +72245,8 @@
           <t>$19.89/kg</t>
         </is>
       </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1621" t="n">
+        <v>4</v>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
@@ -72372,10 +72276,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1622" t="inlineStr">
-        <is>
-          <t>15487</t>
-        </is>
+      <c r="C1622" t="n">
+        <v>15487</v>
       </c>
       <c r="D1622" t="inlineStr">
         <is>
@@ -72387,10 +72289,8 @@
           <t>$19.74/kg</t>
         </is>
       </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1622" t="n">
+        <v>4</v>
       </c>
       <c r="G1622" t="inlineStr">
         <is>
@@ -72420,10 +72320,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1623" t="inlineStr">
-        <is>
-          <t>15912</t>
-        </is>
+      <c r="C1623" t="n">
+        <v>15912</v>
       </c>
       <c r="D1623" t="inlineStr">
         <is>
@@ -72435,10 +72333,8 @@
           <t>$19.81/kg</t>
         </is>
       </c>
-      <c r="F1623" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1623" t="n">
+        <v>4</v>
       </c>
       <c r="G1623" t="inlineStr">
         <is>
@@ -72468,10 +72364,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1624" t="inlineStr">
-        <is>
-          <t>16791</t>
-        </is>
+      <c r="C1624" t="n">
+        <v>16791</v>
       </c>
       <c r="D1624" t="inlineStr">
         <is>
@@ -72483,10 +72377,8 @@
           <t>$19.45/kg</t>
         </is>
       </c>
-      <c r="F1624" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1624" t="n">
+        <v>4</v>
       </c>
       <c r="G1624" t="inlineStr">
         <is>
@@ -72516,10 +72408,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1625" t="inlineStr">
-        <is>
-          <t>16720</t>
-        </is>
+      <c r="C1625" t="n">
+        <v>16720</v>
       </c>
       <c r="D1625" t="inlineStr">
         <is>
@@ -72531,10 +72421,8 @@
           <t>$19.70/kg</t>
         </is>
       </c>
-      <c r="F1625" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1625" t="n">
+        <v>4</v>
       </c>
       <c r="G1625" t="inlineStr">
         <is>
@@ -72564,10 +72452,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1626" t="inlineStr">
-        <is>
-          <t>15484</t>
-        </is>
+      <c r="C1626" t="n">
+        <v>15484</v>
       </c>
       <c r="D1626" t="inlineStr">
         <is>
@@ -72579,10 +72465,8 @@
           <t>$19.63/kg</t>
         </is>
       </c>
-      <c r="F1626" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1626" t="n">
+        <v>4</v>
       </c>
       <c r="G1626" t="inlineStr">
         <is>
@@ -72612,10 +72496,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1627" t="inlineStr">
-        <is>
-          <t>15631</t>
-        </is>
+      <c r="C1627" t="n">
+        <v>15631</v>
       </c>
       <c r="D1627" t="inlineStr">
         <is>
@@ -72627,10 +72509,8 @@
           <t>$19.76/kg</t>
         </is>
       </c>
-      <c r="F1627" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1627" t="n">
+        <v>4</v>
       </c>
       <c r="G1627" t="inlineStr">
         <is>
@@ -72660,10 +72540,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1628" t="inlineStr">
-        <is>
-          <t>15483</t>
-        </is>
+      <c r="C1628" t="n">
+        <v>15483</v>
       </c>
       <c r="D1628" t="inlineStr">
         <is>
@@ -72675,10 +72553,8 @@
           <t>$19.89/kg</t>
         </is>
       </c>
-      <c r="F1628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1628" t="n">
+        <v>2</v>
       </c>
       <c r="G1628" t="inlineStr">
         <is>
@@ -72708,10 +72584,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>16719</t>
-        </is>
+      <c r="C1629" t="n">
+        <v>16719</v>
       </c>
       <c r="D1629" t="inlineStr">
         <is>
@@ -72723,10 +72597,8 @@
           <t>$19.45/kg</t>
         </is>
       </c>
-      <c r="F1629" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1629" t="n">
+        <v>4</v>
       </c>
       <c r="G1629" t="inlineStr">
         <is>
@@ -72756,10 +72628,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1630" t="inlineStr">
-        <is>
-          <t>16718</t>
-        </is>
+      <c r="C1630" t="n">
+        <v>16718</v>
       </c>
       <c r="D1630" t="inlineStr">
         <is>
@@ -72771,10 +72641,8 @@
           <t>$19.63/kg</t>
         </is>
       </c>
-      <c r="F1630" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1630" t="n">
+        <v>4</v>
       </c>
       <c r="G1630" t="inlineStr">
         <is>
@@ -72804,10 +72672,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1631" t="inlineStr">
-        <is>
-          <t>16758</t>
-        </is>
+      <c r="C1631" t="n">
+        <v>16758</v>
       </c>
       <c r="D1631" t="inlineStr">
         <is>
@@ -72819,10 +72685,8 @@
           <t>$19.74/kg</t>
         </is>
       </c>
-      <c r="F1631" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1631" t="n">
+        <v>4</v>
       </c>
       <c r="G1631" t="inlineStr">
         <is>
@@ -72852,10 +72716,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1632" t="inlineStr">
-        <is>
-          <t>15479</t>
-        </is>
+      <c r="C1632" t="n">
+        <v>15479</v>
       </c>
       <c r="D1632" t="inlineStr">
         <is>
@@ -72867,10 +72729,8 @@
           <t>$19.76/kg</t>
         </is>
       </c>
-      <c r="F1632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1632" t="n">
+        <v>2</v>
       </c>
       <c r="G1632" t="inlineStr">
         <is>
@@ -72900,10 +72760,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1633" t="inlineStr">
-        <is>
-          <t>15628</t>
-        </is>
+      <c r="C1633" t="n">
+        <v>15628</v>
       </c>
       <c r="D1633" t="inlineStr">
         <is>
@@ -72915,10 +72773,8 @@
           <t>$19.76/kg</t>
         </is>
       </c>
-      <c r="F1633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F1633" t="n">
+        <v>2</v>
       </c>
       <c r="G1633" t="inlineStr">
         <is>
@@ -72948,10 +72804,8 @@
           <t>cryo</t>
         </is>
       </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>15480</t>
-        </is>
+      <c r="C1634" t="n">
+        <v>15480</v>
       </c>
       <c r="D1634" t="inlineStr">
         <is>
@@ -72963,10 +72817,8 @@
           <t>$19.70/kg</t>
         </is>
       </c>
-      <c r="F1634" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F1634" t="n">
+        <v>4</v>
       </c>
       <c r="G1634" t="inlineStr">
         <is>
@@ -72996,10 +72848,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>15021</t>
-        </is>
+      <c r="C1635" t="n">
+        <v>15021</v>
       </c>
       <c r="D1635" t="inlineStr">
         <is>
@@ -73011,10 +72861,8 @@
           <t>$19.99/kg</t>
         </is>
       </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1635" t="n">
+        <v>1</v>
       </c>
       <c r="G1635" t="inlineStr">
         <is>
@@ -73044,10 +72892,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>15022</t>
-        </is>
+      <c r="C1636" t="n">
+        <v>15022</v>
       </c>
       <c r="D1636" t="inlineStr">
         <is>
@@ -73059,10 +72905,8 @@
           <t>$21.00/kg</t>
         </is>
       </c>
-      <c r="F1636" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1636" t="n">
+        <v>1</v>
       </c>
       <c r="G1636" t="inlineStr">
         <is>
@@ -73092,10 +72936,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>15035</t>
-        </is>
+      <c r="C1637" t="n">
+        <v>15035</v>
       </c>
       <c r="D1637" t="inlineStr">
         <is>
@@ -73107,10 +72949,8 @@
           <t>$20.74/kg</t>
         </is>
       </c>
-      <c r="F1637" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1637" t="n">
+        <v>1</v>
       </c>
       <c r="G1637" t="inlineStr">
         <is>
@@ -73140,10 +72980,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>15036</t>
-        </is>
+      <c r="C1638" t="n">
+        <v>15036</v>
       </c>
       <c r="D1638" t="inlineStr">
         <is>
@@ -73155,10 +72993,8 @@
           <t>$20.69/kg</t>
         </is>
       </c>
-      <c r="F1638" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1638" t="n">
+        <v>1</v>
       </c>
       <c r="G1638" t="inlineStr">
         <is>
@@ -73188,10 +73024,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>15047</t>
-        </is>
+      <c r="C1639" t="n">
+        <v>15047</v>
       </c>
       <c r="D1639" t="inlineStr">
         <is>
@@ -73203,10 +73037,8 @@
           <t>$20.69/kg</t>
         </is>
       </c>
-      <c r="F1639" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1639" t="n">
+        <v>1</v>
       </c>
       <c r="G1639" t="inlineStr">
         <is>
@@ -73236,10 +73068,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>15280</t>
-        </is>
+      <c r="C1640" t="n">
+        <v>15280</v>
       </c>
       <c r="D1640" t="inlineStr">
         <is>
@@ -73251,10 +73081,8 @@
           <t>$21.17/kg</t>
         </is>
       </c>
-      <c r="F1640" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1640" t="n">
+        <v>1</v>
       </c>
       <c r="G1640" t="inlineStr">
         <is>
@@ -73284,10 +73112,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1641" t="inlineStr">
-        <is>
-          <t>15023</t>
-        </is>
+      <c r="C1641" t="n">
+        <v>15023</v>
       </c>
       <c r="D1641" t="inlineStr">
         <is>
@@ -73299,10 +73125,8 @@
           <t>$21.26/kg</t>
         </is>
       </c>
-      <c r="F1641" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1641" t="n">
+        <v>1</v>
       </c>
       <c r="G1641" t="inlineStr">
         <is>
@@ -73332,10 +73156,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1642" t="inlineStr">
-        <is>
-          <t>15041</t>
-        </is>
+      <c r="C1642" t="n">
+        <v>15041</v>
       </c>
       <c r="D1642" t="inlineStr">
         <is>
@@ -73347,10 +73169,8 @@
           <t>$21.02/kg</t>
         </is>
       </c>
-      <c r="F1642" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1642" t="n">
+        <v>1</v>
       </c>
       <c r="G1642" t="inlineStr">
         <is>
@@ -73380,10 +73200,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1643" t="inlineStr">
-        <is>
-          <t>15037</t>
-        </is>
+      <c r="C1643" t="n">
+        <v>15037</v>
       </c>
       <c r="D1643" t="inlineStr">
         <is>
@@ -73395,10 +73213,8 @@
           <t>$21.02/kg</t>
         </is>
       </c>
-      <c r="F1643" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1643" t="n">
+        <v>1</v>
       </c>
       <c r="G1643" t="inlineStr">
         <is>
@@ -73428,10 +73244,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1644" t="inlineStr">
-        <is>
-          <t>15039</t>
-        </is>
+      <c r="C1644" t="n">
+        <v>15039</v>
       </c>
       <c r="D1644" t="inlineStr">
         <is>
@@ -73443,10 +73257,8 @@
           <t>$20.69/kg</t>
         </is>
       </c>
-      <c r="F1644" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1644" t="n">
+        <v>1</v>
       </c>
       <c r="G1644" t="inlineStr">
         <is>
@@ -73476,10 +73288,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1645" t="inlineStr">
-        <is>
-          <t>15033</t>
-        </is>
+      <c r="C1645" t="n">
+        <v>15033</v>
       </c>
       <c r="D1645" t="inlineStr">
         <is>
@@ -73491,10 +73301,8 @@
           <t>$19.99/kg</t>
         </is>
       </c>
-      <c r="F1645" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1645" t="n">
+        <v>1</v>
       </c>
       <c r="G1645" t="inlineStr">
         <is>
@@ -73524,10 +73332,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1646" t="inlineStr">
-        <is>
-          <t>15040</t>
-        </is>
+      <c r="C1646" t="n">
+        <v>15040</v>
       </c>
       <c r="D1646" t="inlineStr">
         <is>
@@ -73539,10 +73345,8 @@
           <t>$21.17/kg</t>
         </is>
       </c>
-      <c r="F1646" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1646" t="n">
+        <v>1</v>
       </c>
       <c r="G1646" t="inlineStr">
         <is>
@@ -73576,10 +73380,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>15024</t>
-        </is>
+      <c r="C1647" t="n">
+        <v>15024</v>
       </c>
       <c r="D1647" t="inlineStr">
         <is>
@@ -73591,10 +73393,8 @@
           <t>$20.78/kg</t>
         </is>
       </c>
-      <c r="F1647" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1647" t="n">
+        <v>1</v>
       </c>
       <c r="G1647" t="inlineStr">
         <is>
@@ -73624,10 +73424,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>15042</t>
-        </is>
+      <c r="C1648" t="n">
+        <v>15042</v>
       </c>
       <c r="D1648" t="inlineStr">
         <is>
@@ -73639,10 +73437,8 @@
           <t>$21.02/kg</t>
         </is>
       </c>
-      <c r="F1648" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1648" t="n">
+        <v>1</v>
       </c>
       <c r="G1648" t="inlineStr">
         <is>
@@ -73672,10 +73468,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>15029</t>
-        </is>
+      <c r="C1649" t="n">
+        <v>15029</v>
       </c>
       <c r="D1649" t="inlineStr">
         <is>
@@ -73687,10 +73481,8 @@
           <t>$21.00/kg</t>
         </is>
       </c>
-      <c r="F1649" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1649" t="n">
+        <v>1</v>
       </c>
       <c r="G1649" t="inlineStr">
         <is>
@@ -73720,10 +73512,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>15048</t>
-        </is>
+      <c r="C1650" t="n">
+        <v>15048</v>
       </c>
       <c r="D1650" t="inlineStr">
         <is>
@@ -73735,10 +73525,8 @@
           <t>$20.88/kg</t>
         </is>
       </c>
-      <c r="F1650" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1650" t="n">
+        <v>1</v>
       </c>
       <c r="G1650" t="inlineStr">
         <is>
@@ -73768,10 +73556,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1651" t="inlineStr">
-        <is>
-          <t>15031</t>
-        </is>
+      <c r="C1651" t="n">
+        <v>15031</v>
       </c>
       <c r="D1651" t="inlineStr">
         <is>
@@ -73783,10 +73569,8 @@
           <t>$20.95/kg</t>
         </is>
       </c>
-      <c r="F1651" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1651" t="n">
+        <v>1</v>
       </c>
       <c r="G1651" t="inlineStr">
         <is>
@@ -73816,10 +73600,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1652" t="inlineStr">
-        <is>
-          <t>15049</t>
-        </is>
+      <c r="C1652" t="n">
+        <v>15049</v>
       </c>
       <c r="D1652" t="inlineStr">
         <is>
@@ -73831,10 +73613,8 @@
           <t>$21.17/kg</t>
         </is>
       </c>
-      <c r="F1652" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1652" t="n">
+        <v>1</v>
       </c>
       <c r="G1652" t="inlineStr">
         <is>
@@ -73864,10 +73644,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>15032</t>
-        </is>
+      <c r="C1653" t="n">
+        <v>15032</v>
       </c>
       <c r="D1653" t="inlineStr">
         <is>
@@ -73879,10 +73657,8 @@
           <t>$21.10/kg</t>
         </is>
       </c>
-      <c r="F1653" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1653" t="n">
+        <v>1</v>
       </c>
       <c r="G1653" t="inlineStr">
         <is>
@@ -73912,10 +73688,8 @@
           <t>std</t>
         </is>
       </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>15281</t>
-        </is>
+      <c r="C1654" t="n">
+        <v>15281</v>
       </c>
       <c r="D1654" t="inlineStr">
         <is>
@@ -73927,10 +73701,8 @@
           <t>$20.50/kg</t>
         </is>
       </c>
-      <c r="F1654" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F1654" t="n">
+        <v>1</v>
       </c>
       <c r="G1654" t="inlineStr">
         <is>
@@ -73946,258 +73718,5286 @@
       <c r="J1654" t="inlineStr">
         <is>
           <t>2022-11-25 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1655" t="n">
+        <v>15004</v>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>Diamond Bar</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>$18.99/kg</t>
+        </is>
+      </c>
+      <c r="F1655" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="H1655" t="inlineStr"/>
+      <c r="I1655" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1655" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1656" t="n">
+        <v>14999</v>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>Fairfax-LA</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>$18.99/kg</t>
+        </is>
+      </c>
+      <c r="F1656" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="I1656" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1656" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1657" t="n">
+        <v>15003</v>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>Lawndale</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>$18.98/kg</t>
+        </is>
+      </c>
+      <c r="F1657" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="H1657" t="inlineStr"/>
+      <c r="I1657" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1657" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1658" t="n">
+        <v>14996</v>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>Santa Monica</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>$18.99/kg</t>
+        </is>
+      </c>
+      <c r="F1658" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1658" t="inlineStr"/>
+      <c r="I1658" t="inlineStr">
+        <is>
+          <t>57kg</t>
+        </is>
+      </c>
+      <c r="J1658" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1659" t="n">
+        <v>15007</v>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>UC Irvine</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>$18.95/kg</t>
+        </is>
+      </c>
+      <c r="F1659" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="H1659" t="inlineStr"/>
+      <c r="I1659" t="inlineStr">
+        <is>
+          <t>145kg</t>
+        </is>
+      </c>
+      <c r="J1659" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1660" t="n">
+        <v>15014</v>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>Woodland Hills</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>$18.99/kg</t>
+        </is>
+      </c>
+      <c r="F1660" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1660" t="inlineStr"/>
+      <c r="I1660" t="inlineStr">
+        <is>
+          <t>35kg</t>
+        </is>
+      </c>
+      <c r="J1660" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>Cal State LA</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>electrolyzer</t>
+        </is>
+      </c>
+      <c r="C1661" t="n">
+        <v>14972</v>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>Cal State LA</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>$20.12/kg</t>
+        </is>
+      </c>
+      <c r="F1661" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1661" t="inlineStr"/>
+      <c r="I1661" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1661" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1662" t="n">
+        <v>16790</v>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>Hawaiian Gardens</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1662" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="H1662" t="inlineStr"/>
+      <c r="I1662" t="inlineStr">
+        <is>
+          <t>347kg</t>
+        </is>
+      </c>
+      <c r="J1662" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1663" t="n">
+        <v>15005</v>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>San Juan Capistrano</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1663" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1663" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1663" t="inlineStr"/>
+      <c r="I1663" t="inlineStr">
+        <is>
+          <t>64kg</t>
+        </is>
+      </c>
+      <c r="J1663" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1664" t="n">
+        <v>15030</v>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>San Ramon</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1664" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1664" t="inlineStr"/>
+      <c r="I1664" t="inlineStr">
+        <is>
+          <t>46kg</t>
+        </is>
+      </c>
+      <c r="J1664" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1665" t="n">
+        <v>15006</v>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>West Sacramento</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1665" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1665" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1665" t="inlineStr"/>
+      <c r="I1665" t="inlineStr">
+        <is>
+          <t>75kg</t>
+        </is>
+      </c>
+      <c r="J1665" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1666" t="n">
+        <v>17149</v>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>Seal Beach</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1666" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1666" t="inlineStr"/>
+      <c r="I1666" t="inlineStr">
+        <is>
+          <t>152kg</t>
+        </is>
+      </c>
+      <c r="J1666" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1667" t="n">
+        <v>15046</v>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>Riverside</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>$19.99/kg</t>
+        </is>
+      </c>
+      <c r="F1667" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1667" t="inlineStr"/>
+      <c r="I1667" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1667" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>Messer</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1668" t="n">
+        <v>15688</v>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>Emeryville</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>$19.19/kg</t>
+        </is>
+      </c>
+      <c r="F1668" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1668" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1668" t="inlineStr"/>
+      <c r="I1668" t="inlineStr">
+        <is>
+          <t>46kg</t>
+        </is>
+      </c>
+      <c r="J1668" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>pipeline</t>
+        </is>
+      </c>
+      <c r="C1669" t="n">
+        <v>15595</v>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>Torrance</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>$15.99/kg</t>
+        </is>
+      </c>
+      <c r="F1669" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1669" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1669" t="inlineStr"/>
+      <c r="I1669" t="inlineStr">
+        <is>
+          <t>500kg</t>
+        </is>
+      </c>
+      <c r="J1669" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1670" t="n">
+        <v>15472</v>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>Berkeley</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1670" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1670" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="I1670" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1670" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1671" t="n">
+        <v>15488</v>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>Citrus Heights</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1671" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1671" t="inlineStr"/>
+      <c r="I1671" t="inlineStr">
+        <is>
+          <t>162kg</t>
+        </is>
+      </c>
+      <c r="J1671" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1672" t="n">
+        <v>15486</v>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>$16.35/kg</t>
+        </is>
+      </c>
+      <c r="F1672" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1672" t="inlineStr"/>
+      <c r="I1672" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1672" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1673" t="n">
+        <v>15477</v>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>San Francisco - Mission St</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1673" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1673" t="inlineStr"/>
+      <c r="I1673" t="inlineStr">
+        <is>
+          <t>186kg</t>
+        </is>
+      </c>
+      <c r="J1673" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1674" t="n">
+        <v>15476</v>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>San Francisco - Third St</t>
+        </is>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1674" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1674" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="I1674" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1674" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1675" t="n">
+        <v>15848</v>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>San Jose - Bernal</t>
+        </is>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1675" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1675" t="inlineStr"/>
+      <c r="I1675" t="inlineStr">
+        <is>
+          <t>54kg</t>
+        </is>
+      </c>
+      <c r="J1675" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1676" t="n">
+        <v>16759</v>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>Aliso Viejo</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>$19.45/kg</t>
+        </is>
+      </c>
+      <c r="F1676" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1676" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1676" t="inlineStr"/>
+      <c r="I1676" t="inlineStr">
+        <is>
+          <t>693kg</t>
+        </is>
+      </c>
+      <c r="J1676" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1677" t="n">
+        <v>16757</v>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>Baldwin Park</t>
+        </is>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>$19.76/kg</t>
+        </is>
+      </c>
+      <c r="F1677" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1677" t="inlineStr"/>
+      <c r="I1677" t="inlineStr">
+        <is>
+          <t>583kg</t>
+        </is>
+      </c>
+      <c r="J1677" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1678" t="n">
+        <v>16763</v>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>Burbank - North Hollywood Ave</t>
+        </is>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>$19.89/kg</t>
+        </is>
+      </c>
+      <c r="F1678" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1678" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1678" t="inlineStr"/>
+      <c r="I1678" t="inlineStr">
+        <is>
+          <t>503kg</t>
+        </is>
+      </c>
+      <c r="J1678" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1679" t="n">
+        <v>15487</v>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>Campbell - East Hamilton Ave</t>
+        </is>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>$19.73/kg</t>
+        </is>
+      </c>
+      <c r="F1679" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1679" t="inlineStr"/>
+      <c r="I1679" t="inlineStr">
+        <is>
+          <t>686kg</t>
+        </is>
+      </c>
+      <c r="J1679" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1680" t="n">
+        <v>15912</v>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>Concord</t>
+        </is>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>$19.81/kg</t>
+        </is>
+      </c>
+      <c r="F1680" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1680" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H1680" t="inlineStr"/>
+      <c r="I1680" t="inlineStr">
+        <is>
+          <t>643kg</t>
+        </is>
+      </c>
+      <c r="J1680" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1681" t="n">
+        <v>16791</v>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>Costa Mesa - Bristol St</t>
+        </is>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>$19.45/kg</t>
+        </is>
+      </c>
+      <c r="F1681" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1681" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1681" t="inlineStr"/>
+      <c r="I1681" t="inlineStr">
+        <is>
+          <t>690kg</t>
+        </is>
+      </c>
+      <c r="J1681" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1682" t="n">
+        <v>16720</v>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>Cupertino</t>
+        </is>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>$19.70/kg</t>
+        </is>
+      </c>
+      <c r="F1682" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1682" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1682" t="inlineStr"/>
+      <c r="I1682" t="inlineStr">
+        <is>
+          <t>811kg</t>
+        </is>
+      </c>
+      <c r="J1682" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1683" t="n">
+        <v>15484</v>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>Fountain Valley</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>$19.63/kg</t>
+        </is>
+      </c>
+      <c r="F1683" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1683" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1683" t="inlineStr"/>
+      <c r="I1683" t="inlineStr">
+        <is>
+          <t>589kg</t>
+        </is>
+      </c>
+      <c r="J1683" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1684" t="n">
+        <v>15631</v>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>Mission Hills</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>$19.76/kg</t>
+        </is>
+      </c>
+      <c r="F1684" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1684" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1684" t="inlineStr"/>
+      <c r="I1684" t="inlineStr">
+        <is>
+          <t>814kg</t>
+        </is>
+      </c>
+      <c r="J1684" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1685" t="n">
+        <v>15483</v>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>Oakland - Grand Ave</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>$19.90/kg</t>
+        </is>
+      </c>
+      <c r="F1685" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1685" t="inlineStr"/>
+      <c r="I1685" t="inlineStr">
+        <is>
+          <t>651kg</t>
+        </is>
+      </c>
+      <c r="J1685" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1686" t="n">
+        <v>16719</v>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>$19.45/kg</t>
+        </is>
+      </c>
+      <c r="F1686" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1686" t="inlineStr"/>
+      <c r="I1686" t="inlineStr">
+        <is>
+          <t>752kg</t>
+        </is>
+      </c>
+      <c r="J1686" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1687" t="n">
+        <v>16718</v>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>Placentia</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>$19.63/kg</t>
+        </is>
+      </c>
+      <c r="F1687" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1687" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1687" t="inlineStr"/>
+      <c r="I1687" t="inlineStr">
+        <is>
+          <t>572kg</t>
+        </is>
+      </c>
+      <c r="J1687" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1688" t="n">
+        <v>16758</v>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>San Jose - Snell Ave</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>$19.73/kg</t>
+        </is>
+      </c>
+      <c r="F1688" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1688" t="inlineStr"/>
+      <c r="I1688" t="inlineStr">
+        <is>
+          <t>724kg</t>
+        </is>
+      </c>
+      <c r="J1688" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1689" t="n">
+        <v>15479</v>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>Sherman Oaks</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>$19.76/kg</t>
+        </is>
+      </c>
+      <c r="F1689" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1689" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1689" t="inlineStr"/>
+      <c r="I1689" t="inlineStr">
+        <is>
+          <t>416kg</t>
+        </is>
+      </c>
+      <c r="J1689" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1690" t="n">
+        <v>15628</v>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>Studio City</t>
+        </is>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>$19.76/kg</t>
+        </is>
+      </c>
+      <c r="F1690" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1690" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1690" t="inlineStr"/>
+      <c r="I1690" t="inlineStr">
+        <is>
+          <t>739kg</t>
+        </is>
+      </c>
+      <c r="J1690" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1691" t="n">
+        <v>15480</v>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>Sunnyvale</t>
+        </is>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>$19.70/kg</t>
+        </is>
+      </c>
+      <c r="F1691" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1691" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1691" t="inlineStr"/>
+      <c r="I1691" t="inlineStr">
+        <is>
+          <t>687kg</t>
+        </is>
+      </c>
+      <c r="J1691" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1692" t="n">
+        <v>15021</v>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>Anaheim</t>
+        </is>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>$19.98/kg</t>
+        </is>
+      </c>
+      <c r="F1692" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1692" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1692" t="inlineStr"/>
+      <c r="I1692" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1692" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1693" t="n">
+        <v>15022</v>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>Campbell - Winchester Blvd</t>
+        </is>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>$21.00/kg</t>
+        </is>
+      </c>
+      <c r="F1693" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1693" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1693" t="inlineStr"/>
+      <c r="I1693" t="inlineStr">
+        <is>
+          <t>137kg</t>
+        </is>
+      </c>
+      <c r="J1693" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1694" t="n">
+        <v>15035</v>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>Coalinga - Harris Ranch</t>
+        </is>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>$20.74/kg</t>
+        </is>
+      </c>
+      <c r="F1694" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1694" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1694" t="inlineStr"/>
+      <c r="I1694" t="inlineStr">
+        <is>
+          <t>155kg</t>
+        </is>
+      </c>
+      <c r="J1694" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1695" t="n">
+        <v>15036</v>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>Costa Mesa - Harbor Blvd</t>
+        </is>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>$20.69/kg</t>
+        </is>
+      </c>
+      <c r="F1695" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1695" t="inlineStr"/>
+      <c r="I1695" t="inlineStr">
+        <is>
+          <t>131kg</t>
+        </is>
+      </c>
+      <c r="J1695" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1696" t="n">
+        <v>15047</v>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>Del Mar</t>
+        </is>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>$20.69/kg</t>
+        </is>
+      </c>
+      <c r="F1696" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1696" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1696" t="inlineStr"/>
+      <c r="I1696" t="inlineStr">
+        <is>
+          <t>40kg</t>
+        </is>
+      </c>
+      <c r="J1696" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1697" t="n">
+        <v>15280</v>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>Fremont</t>
+        </is>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>$21.17/kg</t>
+        </is>
+      </c>
+      <c r="F1697" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1697" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1697" t="inlineStr"/>
+      <c r="I1697" t="inlineStr">
+        <is>
+          <t>76kg</t>
+        </is>
+      </c>
+      <c r="J1697" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1698" t="n">
+        <v>15023</v>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>$21.26/kg</t>
+        </is>
+      </c>
+      <c r="F1698" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1698" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1698" t="inlineStr"/>
+      <c r="I1698" t="inlineStr">
+        <is>
+          <t>111kg</t>
+        </is>
+      </c>
+      <c r="J1698" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1699" t="n">
+        <v>15041</v>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>Hollywood</t>
+        </is>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>$21.02/kg</t>
+        </is>
+      </c>
+      <c r="F1699" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1699" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="H1699" t="inlineStr"/>
+      <c r="I1699" t="inlineStr">
+        <is>
+          <t>67kg</t>
+        </is>
+      </c>
+      <c r="J1699" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1700" t="n">
+        <v>15037</v>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>La Canada Flintridge</t>
+        </is>
+      </c>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>$21.02/kg</t>
+        </is>
+      </c>
+      <c r="F1700" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1700" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1700" t="inlineStr"/>
+      <c r="I1700" t="inlineStr">
+        <is>
+          <t>74kg</t>
+        </is>
+      </c>
+      <c r="J1700" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1701" t="n">
+        <v>15039</v>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>Lake Forest</t>
+        </is>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>$20.69/kg</t>
+        </is>
+      </c>
+      <c r="F1701" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1701" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="H1701" t="inlineStr"/>
+      <c r="I1701" t="inlineStr">
+        <is>
+          <t>84kg</t>
+        </is>
+      </c>
+      <c r="J1701" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1702" t="n">
+        <v>15033</v>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>Lake Tahoe-Truckee</t>
+        </is>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>$20.98/kg</t>
+        </is>
+      </c>
+      <c r="F1702" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1702" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1702" t="inlineStr"/>
+      <c r="I1702" t="inlineStr">
+        <is>
+          <t>151kg</t>
+        </is>
+      </c>
+      <c r="J1702" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1703" t="n">
+        <v>15040</v>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>Long Beach</t>
+        </is>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>$21.17/kg</t>
+        </is>
+      </c>
+      <c r="F1703" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1703" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1703" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="I1703" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1703" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1704" t="n">
+        <v>15024</v>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>Mill Valley</t>
+        </is>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>$20.78/kg</t>
+        </is>
+      </c>
+      <c r="F1704" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1704" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1704" t="inlineStr"/>
+      <c r="I1704" t="inlineStr">
+        <is>
+          <t>88kg</t>
+        </is>
+      </c>
+      <c r="J1704" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1705" t="n">
+        <v>15042</v>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>Playa Del Rey</t>
+        </is>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>$21.02/kg</t>
+        </is>
+      </c>
+      <c r="F1705" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1705" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1705" t="inlineStr"/>
+      <c r="I1705" t="inlineStr">
+        <is>
+          <t>125kg</t>
+        </is>
+      </c>
+      <c r="J1705" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1706" t="n">
+        <v>15029</v>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>San Jose - First St</t>
+        </is>
+      </c>
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>$21.00/kg</t>
+        </is>
+      </c>
+      <c r="F1706" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1706" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1706" t="inlineStr"/>
+      <c r="I1706" t="inlineStr">
+        <is>
+          <t>17kg</t>
+        </is>
+      </c>
+      <c r="J1706" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1707" t="n">
+        <v>15048</v>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>Santa Barbara</t>
+        </is>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>$20.88/kg</t>
+        </is>
+      </c>
+      <c r="F1707" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1707" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1707" t="inlineStr"/>
+      <c r="I1707" t="inlineStr">
+        <is>
+          <t>148kg</t>
+        </is>
+      </c>
+      <c r="J1707" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1708" t="n">
+        <v>15031</v>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>Saratoga</t>
+        </is>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>$20.95/kg</t>
+        </is>
+      </c>
+      <c r="F1708" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1708" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1708" t="inlineStr"/>
+      <c r="I1708" t="inlineStr">
+        <is>
+          <t>155kg</t>
+        </is>
+      </c>
+      <c r="J1708" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1709" t="n">
+        <v>15049</v>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>South Pasadena</t>
+        </is>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>$21.17/kg</t>
+        </is>
+      </c>
+      <c r="F1709" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1709" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1709" t="inlineStr"/>
+      <c r="I1709" t="inlineStr">
+        <is>
+          <t>148kg</t>
+        </is>
+      </c>
+      <c r="J1709" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1710" t="n">
+        <v>15032</v>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>South San Francisco</t>
+        </is>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>$21.10/kg</t>
+        </is>
+      </c>
+      <c r="F1710" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1710" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="H1710" t="inlineStr"/>
+      <c r="I1710" t="inlineStr">
+        <is>
+          <t>62kg</t>
+        </is>
+      </c>
+      <c r="J1710" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1711" t="n">
+        <v>15281</v>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>Thousand Oaks</t>
+        </is>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>$20.50/kg</t>
+        </is>
+      </c>
+      <c r="F1711" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1711" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1711" t="inlineStr"/>
+      <c r="I1711" t="inlineStr">
+        <is>
+          <t>82kg</t>
+        </is>
+      </c>
+      <c r="J1711" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>15004</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>Diamond Bar</t>
+        </is>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>$18.99/kg</t>
+        </is>
+      </c>
+      <c r="F1712" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1712" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="H1712" t="inlineStr"/>
+      <c r="I1712" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1712" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>14999</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>Fairfax-LA</t>
+        </is>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>$18.99/kg</t>
+        </is>
+      </c>
+      <c r="F1713" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1713" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1713" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="I1713" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1713" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>15003</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>Lawndale</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>$18.98/kg</t>
+        </is>
+      </c>
+      <c r="F1714" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1714" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="H1714" t="inlineStr"/>
+      <c r="I1714" t="inlineStr">
+        <is>
+          <t>164kg</t>
+        </is>
+      </c>
+      <c r="J1714" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>14996</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>Santa Monica</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>$18.99/kg</t>
+        </is>
+      </c>
+      <c r="F1715" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1715" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1715" t="inlineStr"/>
+      <c r="I1715" t="inlineStr">
+        <is>
+          <t>54kg</t>
+        </is>
+      </c>
+      <c r="J1715" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>15007</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>UC Irvine</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>$18.95/kg</t>
+        </is>
+      </c>
+      <c r="F1716" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1716" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="H1716" t="inlineStr"/>
+      <c r="I1716" t="inlineStr">
+        <is>
+          <t>142kg</t>
+        </is>
+      </c>
+      <c r="J1716" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>Air Products</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>15014</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>Woodland Hills</t>
+        </is>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>$18.99/kg</t>
+        </is>
+      </c>
+      <c r="F1717" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1717" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1717" t="inlineStr"/>
+      <c r="I1717" t="inlineStr">
+        <is>
+          <t>36kg</t>
+        </is>
+      </c>
+      <c r="J1717" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>Cal State LA</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>electrolyzer</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>14972</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>Cal State LA</t>
+        </is>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>$20.12/kg</t>
+        </is>
+      </c>
+      <c r="F1718" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1718" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1718" t="inlineStr"/>
+      <c r="I1718" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1718" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>16790</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>Hawaiian Gardens</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1719" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1719" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="H1719" t="inlineStr"/>
+      <c r="I1719" t="inlineStr">
+        <is>
+          <t>346kg</t>
+        </is>
+      </c>
+      <c r="J1719" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>15005</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>San Juan Capistrano</t>
+        </is>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1720" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1720" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1720" t="inlineStr"/>
+      <c r="I1720" t="inlineStr">
+        <is>
+          <t>64kg</t>
+        </is>
+      </c>
+      <c r="J1720" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>15030</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>San Ramon</t>
+        </is>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1721" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1721" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1721" t="inlineStr"/>
+      <c r="I1721" t="inlineStr">
+        <is>
+          <t>46kg</t>
+        </is>
+      </c>
+      <c r="J1721" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>15006</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>West Sacramento</t>
+        </is>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1722" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1722" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1722" t="inlineStr"/>
+      <c r="I1722" t="inlineStr">
+        <is>
+          <t>75kg</t>
+        </is>
+      </c>
+      <c r="J1722" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>17149</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>Seal Beach</t>
+        </is>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>$24.99/kg</t>
+        </is>
+      </c>
+      <c r="F1723" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1723" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1723" t="inlineStr"/>
+      <c r="I1723" t="inlineStr">
+        <is>
+          <t>152kg</t>
+        </is>
+      </c>
+      <c r="J1723" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>Iwatani</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>trailer swap</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>15046</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>Riverside</t>
+        </is>
+      </c>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>$19.99/kg</t>
+        </is>
+      </c>
+      <c r="F1724" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1724" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1724" t="inlineStr"/>
+      <c r="I1724" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1724" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>Messer</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>15688</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>Emeryville</t>
+        </is>
+      </c>
+      <c r="E1725" t="inlineStr">
+        <is>
+          <t>$19.19/kg</t>
+        </is>
+      </c>
+      <c r="F1725" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1725" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1725" t="inlineStr"/>
+      <c r="I1725" t="inlineStr">
+        <is>
+          <t>46kg</t>
+        </is>
+      </c>
+      <c r="J1725" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>pipeline</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>15595</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>Torrance</t>
+        </is>
+      </c>
+      <c r="E1726" t="inlineStr">
+        <is>
+          <t>$15.99/kg</t>
+        </is>
+      </c>
+      <c r="F1726" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1726" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1726" t="inlineStr"/>
+      <c r="I1726" t="inlineStr">
+        <is>
+          <t>500kg</t>
+        </is>
+      </c>
+      <c r="J1726" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>15472</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>Berkeley</t>
+        </is>
+      </c>
+      <c r="E1727" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1727" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1727" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1727" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="I1727" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1727" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>15488</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>Citrus Heights</t>
+        </is>
+      </c>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1728" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1728" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1728" t="inlineStr"/>
+      <c r="I1728" t="inlineStr">
+        <is>
+          <t>162kg</t>
+        </is>
+      </c>
+      <c r="J1728" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>15486</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>Sacramento</t>
+        </is>
+      </c>
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>$16.35/kg</t>
+        </is>
+      </c>
+      <c r="F1729" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1729" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1729" t="inlineStr"/>
+      <c r="I1729" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1729" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>15477</t>
+        </is>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>San Francisco - Mission St</t>
+        </is>
+      </c>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1730" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1730" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1730" t="inlineStr"/>
+      <c r="I1730" t="inlineStr">
+        <is>
+          <t>186kg</t>
+        </is>
+      </c>
+      <c r="J1730" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>15476</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>San Francisco - Third St</t>
+        </is>
+      </c>
+      <c r="E1731" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1731" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1731" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1731" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="I1731" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1731" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>15848</t>
+        </is>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>San Jose - Bernal</t>
+        </is>
+      </c>
+      <c r="E1732" t="inlineStr">
+        <is>
+          <t>$16.45/kg</t>
+        </is>
+      </c>
+      <c r="F1732" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1732" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1732" t="inlineStr"/>
+      <c r="I1732" t="inlineStr">
+        <is>
+          <t>54kg</t>
+        </is>
+      </c>
+      <c r="J1732" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>16759</t>
+        </is>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>Aliso Viejo</t>
+        </is>
+      </c>
+      <c r="E1733" t="inlineStr">
+        <is>
+          <t>$19.45/kg</t>
+        </is>
+      </c>
+      <c r="F1733" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1733" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1733" t="inlineStr"/>
+      <c r="I1733" t="inlineStr">
+        <is>
+          <t>690kg</t>
+        </is>
+      </c>
+      <c r="J1733" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>16757</t>
+        </is>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>Baldwin Park</t>
+        </is>
+      </c>
+      <c r="E1734" t="inlineStr">
+        <is>
+          <t>$19.76/kg</t>
+        </is>
+      </c>
+      <c r="F1734" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1734" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1734" t="inlineStr"/>
+      <c r="I1734" t="inlineStr">
+        <is>
+          <t>583kg</t>
+        </is>
+      </c>
+      <c r="J1734" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>16763</t>
+        </is>
+      </c>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>Burbank - North Hollywood Ave</t>
+        </is>
+      </c>
+      <c r="E1735" t="inlineStr">
+        <is>
+          <t>$19.89/kg</t>
+        </is>
+      </c>
+      <c r="F1735" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1735" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1735" t="inlineStr"/>
+      <c r="I1735" t="inlineStr">
+        <is>
+          <t>503kg</t>
+        </is>
+      </c>
+      <c r="J1735" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>15487</t>
+        </is>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>Campbell - East Hamilton Ave</t>
+        </is>
+      </c>
+      <c r="E1736" t="inlineStr">
+        <is>
+          <t>$19.73/kg</t>
+        </is>
+      </c>
+      <c r="F1736" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1736" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1736" t="inlineStr"/>
+      <c r="I1736" t="inlineStr">
+        <is>
+          <t>683kg</t>
+        </is>
+      </c>
+      <c r="J1736" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>15912</t>
+        </is>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>Concord</t>
+        </is>
+      </c>
+      <c r="E1737" t="inlineStr">
+        <is>
+          <t>$19.81/kg</t>
+        </is>
+      </c>
+      <c r="F1737" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1737" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H1737" t="inlineStr"/>
+      <c r="I1737" t="inlineStr">
+        <is>
+          <t>643kg</t>
+        </is>
+      </c>
+      <c r="J1737" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>16791</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>Costa Mesa - Bristol St</t>
+        </is>
+      </c>
+      <c r="E1738" t="inlineStr">
+        <is>
+          <t>$19.45/kg</t>
+        </is>
+      </c>
+      <c r="F1738" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1738" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1738" t="inlineStr"/>
+      <c r="I1738" t="inlineStr">
+        <is>
+          <t>686kg</t>
+        </is>
+      </c>
+      <c r="J1738" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>16720</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>Cupertino</t>
+        </is>
+      </c>
+      <c r="E1739" t="inlineStr">
+        <is>
+          <t>$19.70/kg</t>
+        </is>
+      </c>
+      <c r="F1739" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1739" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1739" t="inlineStr"/>
+      <c r="I1739" t="inlineStr">
+        <is>
+          <t>806kg</t>
+        </is>
+      </c>
+      <c r="J1739" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>15484</t>
+        </is>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>Fountain Valley</t>
+        </is>
+      </c>
+      <c r="E1740" t="inlineStr">
+        <is>
+          <t>$19.63/kg</t>
+        </is>
+      </c>
+      <c r="F1740" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1740" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1740" t="inlineStr"/>
+      <c r="I1740" t="inlineStr">
+        <is>
+          <t>588kg</t>
+        </is>
+      </c>
+      <c r="J1740" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>15631</t>
+        </is>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>Mission Hills</t>
+        </is>
+      </c>
+      <c r="E1741" t="inlineStr">
+        <is>
+          <t>$19.76/kg</t>
+        </is>
+      </c>
+      <c r="F1741" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1741" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1741" t="inlineStr"/>
+      <c r="I1741" t="inlineStr">
+        <is>
+          <t>814kg</t>
+        </is>
+      </c>
+      <c r="J1741" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>15483</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>Oakland - Grand Ave</t>
+        </is>
+      </c>
+      <c r="E1742" t="inlineStr">
+        <is>
+          <t>$19.90/kg</t>
+        </is>
+      </c>
+      <c r="F1742" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1742" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1742" t="inlineStr"/>
+      <c r="I1742" t="inlineStr">
+        <is>
+          <t>655kg</t>
+        </is>
+      </c>
+      <c r="J1742" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>16719</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>$19.45/kg</t>
+        </is>
+      </c>
+      <c r="F1743" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1743" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1743" t="inlineStr"/>
+      <c r="I1743" t="inlineStr">
+        <is>
+          <t>748kg</t>
+        </is>
+      </c>
+      <c r="J1743" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>16718</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>Placentia</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>$19.63/kg</t>
+        </is>
+      </c>
+      <c r="F1744" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1744" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1744" t="inlineStr"/>
+      <c r="I1744" t="inlineStr">
+        <is>
+          <t>567kg</t>
+        </is>
+      </c>
+      <c r="J1744" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>16758</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>San Jose - Snell Ave</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>$19.73/kg</t>
+        </is>
+      </c>
+      <c r="F1745" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1745" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1745" t="inlineStr"/>
+      <c r="I1745" t="inlineStr">
+        <is>
+          <t>724kg</t>
+        </is>
+      </c>
+      <c r="J1745" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>15479</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>Sherman Oaks</t>
+        </is>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>$19.76/kg</t>
+        </is>
+      </c>
+      <c r="F1746" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1746" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1746" t="inlineStr"/>
+      <c r="I1746" t="inlineStr">
+        <is>
+          <t>416kg</t>
+        </is>
+      </c>
+      <c r="J1746" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>15628</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>Studio City</t>
+        </is>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>$19.76/kg</t>
+        </is>
+      </c>
+      <c r="F1747" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1747" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1747" t="inlineStr"/>
+      <c r="I1747" t="inlineStr">
+        <is>
+          <t>739kg</t>
+        </is>
+      </c>
+      <c r="J1747" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>cryo</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>15480</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>Sunnyvale</t>
+        </is>
+      </c>
+      <c r="E1748" t="inlineStr">
+        <is>
+          <t>$19.70/kg</t>
+        </is>
+      </c>
+      <c r="F1748" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1748" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1748" t="inlineStr"/>
+      <c r="I1748" t="inlineStr">
+        <is>
+          <t>677kg</t>
+        </is>
+      </c>
+      <c r="J1748" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>15021</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>Anaheim</t>
+        </is>
+      </c>
+      <c r="E1749" t="inlineStr">
+        <is>
+          <t>$19.98/kg</t>
+        </is>
+      </c>
+      <c r="F1749" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1749" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1749" t="inlineStr"/>
+      <c r="I1749" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1749" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>15022</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>Campbell - Winchester Blvd</t>
+        </is>
+      </c>
+      <c r="E1750" t="inlineStr">
+        <is>
+          <t>$21.00/kg</t>
+        </is>
+      </c>
+      <c r="F1750" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1750" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1750" t="inlineStr"/>
+      <c r="I1750" t="inlineStr">
+        <is>
+          <t>136kg</t>
+        </is>
+      </c>
+      <c r="J1750" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>15035</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>Coalinga - Harris Ranch</t>
+        </is>
+      </c>
+      <c r="E1751" t="inlineStr">
+        <is>
+          <t>$20.74/kg</t>
+        </is>
+      </c>
+      <c r="F1751" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1751" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1751" t="inlineStr"/>
+      <c r="I1751" t="inlineStr">
+        <is>
+          <t>154kg</t>
+        </is>
+      </c>
+      <c r="J1751" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>15036</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>Costa Mesa - Harbor Blvd</t>
+        </is>
+      </c>
+      <c r="E1752" t="inlineStr">
+        <is>
+          <t>$20.69/kg</t>
+        </is>
+      </c>
+      <c r="F1752" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1752" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1752" t="inlineStr"/>
+      <c r="I1752" t="inlineStr">
+        <is>
+          <t>131kg</t>
+        </is>
+      </c>
+      <c r="J1752" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>15047</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>Del Mar</t>
+        </is>
+      </c>
+      <c r="E1753" t="inlineStr">
+        <is>
+          <t>$20.69/kg</t>
+        </is>
+      </c>
+      <c r="F1753" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1753" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1753" t="inlineStr"/>
+      <c r="I1753" t="inlineStr">
+        <is>
+          <t>40kg</t>
+        </is>
+      </c>
+      <c r="J1753" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>15280</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>Fremont</t>
+        </is>
+      </c>
+      <c r="E1754" t="inlineStr">
+        <is>
+          <t>$21.17/kg</t>
+        </is>
+      </c>
+      <c r="F1754" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1754" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1754" t="inlineStr"/>
+      <c r="I1754" t="inlineStr">
+        <is>
+          <t>77kg</t>
+        </is>
+      </c>
+      <c r="J1754" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>15023</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="E1755" t="inlineStr">
+        <is>
+          <t>$21.26/kg</t>
+        </is>
+      </c>
+      <c r="F1755" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1755" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1755" t="inlineStr"/>
+      <c r="I1755" t="inlineStr">
+        <is>
+          <t>109kg</t>
+        </is>
+      </c>
+      <c r="J1755" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>15041</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>Hollywood</t>
+        </is>
+      </c>
+      <c r="E1756" t="inlineStr">
+        <is>
+          <t>$21.02/kg</t>
+        </is>
+      </c>
+      <c r="F1756" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1756" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="H1756" t="inlineStr"/>
+      <c r="I1756" t="inlineStr">
+        <is>
+          <t>68kg</t>
+        </is>
+      </c>
+      <c r="J1756" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>15037</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>La Canada Flintridge</t>
+        </is>
+      </c>
+      <c r="E1757" t="inlineStr">
+        <is>
+          <t>$21.02/kg</t>
+        </is>
+      </c>
+      <c r="F1757" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1757" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1757" t="inlineStr"/>
+      <c r="I1757" t="inlineStr">
+        <is>
+          <t>73kg</t>
+        </is>
+      </c>
+      <c r="J1757" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>15039</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>Lake Forest</t>
+        </is>
+      </c>
+      <c r="E1758" t="inlineStr">
+        <is>
+          <t>$20.69/kg</t>
+        </is>
+      </c>
+      <c r="F1758" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1758" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="H1758" t="inlineStr"/>
+      <c r="I1758" t="inlineStr">
+        <is>
+          <t>85kg</t>
+        </is>
+      </c>
+      <c r="J1758" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>15033</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>Lake Tahoe-Truckee</t>
+        </is>
+      </c>
+      <c r="E1759" t="inlineStr">
+        <is>
+          <t>$20.98/kg</t>
+        </is>
+      </c>
+      <c r="F1759" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1759" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1759" t="inlineStr"/>
+      <c r="I1759" t="inlineStr">
+        <is>
+          <t>151kg</t>
+        </is>
+      </c>
+      <c r="J1759" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>15040</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>Long Beach</t>
+        </is>
+      </c>
+      <c r="E1760" t="inlineStr">
+        <is>
+          <t>$21.17/kg</t>
+        </is>
+      </c>
+      <c r="F1760" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1760" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1760" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="I1760" t="inlineStr">
+        <is>
+          <t>0kg</t>
+        </is>
+      </c>
+      <c r="J1760" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>15024</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>Mill Valley</t>
+        </is>
+      </c>
+      <c r="E1761" t="inlineStr">
+        <is>
+          <t>$20.78/kg</t>
+        </is>
+      </c>
+      <c r="F1761" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1761" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1761" t="inlineStr"/>
+      <c r="I1761" t="inlineStr">
+        <is>
+          <t>88kg</t>
+        </is>
+      </c>
+      <c r="J1761" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>15042</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>Playa Del Rey</t>
+        </is>
+      </c>
+      <c r="E1762" t="inlineStr">
+        <is>
+          <t>$21.02/kg</t>
+        </is>
+      </c>
+      <c r="F1762" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1762" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1762" t="inlineStr"/>
+      <c r="I1762" t="inlineStr">
+        <is>
+          <t>125kg</t>
+        </is>
+      </c>
+      <c r="J1762" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>15029</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>San Jose - First St</t>
+        </is>
+      </c>
+      <c r="E1763" t="inlineStr">
+        <is>
+          <t>$21.00/kg</t>
+        </is>
+      </c>
+      <c r="F1763" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1763" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1763" t="inlineStr"/>
+      <c r="I1763" t="inlineStr">
+        <is>
+          <t>17kg</t>
+        </is>
+      </c>
+      <c r="J1763" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>15048</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>Santa Barbara</t>
+        </is>
+      </c>
+      <c r="E1764" t="inlineStr">
+        <is>
+          <t>$20.88/kg</t>
+        </is>
+      </c>
+      <c r="F1764" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1764" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1764" t="inlineStr"/>
+      <c r="I1764" t="inlineStr">
+        <is>
+          <t>146kg</t>
+        </is>
+      </c>
+      <c r="J1764" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>15031</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>Saratoga</t>
+        </is>
+      </c>
+      <c r="E1765" t="inlineStr">
+        <is>
+          <t>$20.95/kg</t>
+        </is>
+      </c>
+      <c r="F1765" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1765" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1765" t="inlineStr"/>
+      <c r="I1765" t="inlineStr">
+        <is>
+          <t>155kg</t>
+        </is>
+      </c>
+      <c r="J1765" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>15049</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>South Pasadena</t>
+        </is>
+      </c>
+      <c r="E1766" t="inlineStr">
+        <is>
+          <t>$21.17/kg</t>
+        </is>
+      </c>
+      <c r="F1766" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1766" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H1766" t="inlineStr"/>
+      <c r="I1766" t="inlineStr">
+        <is>
+          <t>146kg</t>
+        </is>
+      </c>
+      <c r="J1766" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>15032</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>South San Francisco</t>
+        </is>
+      </c>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>$21.10/kg</t>
+        </is>
+      </c>
+      <c r="F1767" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1767" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="H1767" t="inlineStr"/>
+      <c r="I1767" t="inlineStr">
+        <is>
+          <t>61kg</t>
+        </is>
+      </c>
+      <c r="J1767" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>True Zero</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>15281</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>Thousand Oaks</t>
+        </is>
+      </c>
+      <c r="E1768" t="inlineStr">
+        <is>
+          <t>$20.50/kg</t>
+        </is>
+      </c>
+      <c r="F1768" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1768" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H1768" t="inlineStr"/>
+      <c r="I1768" t="inlineStr">
+        <is>
+          <t>82kg</t>
+        </is>
+      </c>
+      <c r="J1768" t="inlineStr">
+        <is>
+          <t>2022-12-08 12:25</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045352A470453DA46AD32DB0443E8D487" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="665655053633c6c003f4e9464396ba09">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32802cfc-e1cd-495d-97a8-82b9b607f199" xmlns:ns3="24658583-a71f-4114-9511-b980d31e23d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69abe6ffb844c439fc8bdccec5cbd520" ns2:_="" ns3:_="">
-    <xsd:import namespace="32802cfc-e1cd-495d-97a8-82b9b607f199"/>
-    <xsd:import namespace="24658583-a71f-4114-9511-b980d31e23d9"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:FileName" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32802cfc-e1cd-495d-97a8-82b9b607f199" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="82233b35-8e74-4564-a8cc-2bc7d8425abe" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FileName" ma:index="18" nillable="true" ma:displayName="File Name" ma:format="Dropdown" ma:internalName="FileName" ma:percentage="FALSE">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="24658583-a71f-4114-9511-b980d31e23d9" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4e0bcde8-86ba-413c-a1db-40385d688b28}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="24658583-a71f-4114-9511-b980d31e23d9">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C2E44E0-46DF-4AC2-9E14-8B424531D67A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F93E849-7F82-4C33-8266-348A80247DC9}"/>
 </file>